--- a/converter/data/xlsx/10.9. A SMJENA.XLSX
+++ b/converter/data/xlsx/10.9. A SMJENA.XLSX
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="124">
   <si>
     <t>PONEDJELJAK</t>
   </si>
@@ -476,8 +476,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2500,7 +2500,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="628">
+  <cellXfs count="630">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3751,9 +3751,6 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3986,9 +3983,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4066,9 +4060,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="116" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4085,6 +4076,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4171,10 +4171,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -4182,9 +4188,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFFD9CD"/>
       <color rgb="FF996600"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFFCC"/>
@@ -5288,11 +5294,58 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4929187" y="2059781"/>
+          <a:ext cx="261938" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5366,6 +5419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5400,6 +5454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5575,14 +5630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="3" width="7.140625" customWidth="1"/>
@@ -5616,7 +5671,7 @@
     <col min="36" max="36" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="26.25">
+    <row r="1" spans="1:37" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="606" t="s">
         <v>106</v>
       </c>
@@ -5657,8 +5712,8 @@
       <c r="AJ1" s="606"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="18">
-      <c r="A2" s="487" t="s">
+    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="486" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="607" t="s">
@@ -5708,7 +5763,7 @@
       <c r="AJ2" s="613"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="16.5" thickBot="1">
+    <row r="3" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5874,7 @@
       </c>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="18.75" thickTop="1">
+    <row r="4" spans="1:37" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>92</v>
       </c>
@@ -5896,7 +5951,7 @@
       <c r="AJ4" s="35"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
         <v>67</v>
       </c>
@@ -5945,7 +6000,7 @@
       <c r="AJ5" s="158"/>
       <c r="AK5" s="74"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="100" t="s">
         <v>99</v>
       </c>
@@ -6018,7 +6073,7 @@
       <c r="AJ6" s="152"/>
       <c r="AK6" s="55"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
         <v>105</v>
       </c>
@@ -6063,7 +6118,7 @@
       <c r="AJ7" s="152"/>
       <c r="AK7" s="55"/>
     </row>
-    <row r="8" spans="1:37" ht="18.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
@@ -6124,9 +6179,9 @@
       <c r="AJ8" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="AK8" s="518"/>
-    </row>
-    <row r="9" spans="1:37" ht="17.25" customHeight="1">
+      <c r="AK8" s="517"/>
+    </row>
+    <row r="9" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -6139,8 +6194,10 @@
       <c r="D9" s="167"/>
       <c r="E9" s="167"/>
       <c r="F9" s="167"/>
-      <c r="G9" s="477"/>
-      <c r="H9" s="478"/>
+      <c r="G9" s="167">
+        <v>55</v>
+      </c>
+      <c r="H9" s="477"/>
       <c r="I9" s="166"/>
       <c r="J9" s="168"/>
       <c r="K9" s="302"/>
@@ -6161,30 +6218,30 @@
       <c r="T9" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="U9" s="551" t="s">
+      <c r="U9" s="550" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="564" t="s">
+      <c r="V9" s="562" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="576" t="s">
+      <c r="W9" s="574" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="577" t="s">
+      <c r="X9" s="575" t="s">
         <v>71</v>
       </c>
       <c r="Y9" s="125"/>
-      <c r="Z9" s="135"/>
+      <c r="Z9" s="125"/>
       <c r="AA9" s="170"/>
       <c r="AB9" s="170"/>
       <c r="AC9" s="301"/>
       <c r="AD9" s="221"/>
       <c r="AE9" s="236"/>
       <c r="AF9" s="237"/>
-      <c r="AG9" s="562" t="s">
+      <c r="AG9" s="560" t="s">
         <v>71</v>
       </c>
-      <c r="AH9" s="538" t="s">
+      <c r="AH9" s="537" t="s">
         <v>71</v>
       </c>
       <c r="AI9" s="125" t="s">
@@ -6195,7 +6252,7 @@
       </c>
       <c r="AK9" s="74"/>
     </row>
-    <row r="10" spans="1:37" ht="17.25" customHeight="1">
+    <row r="10" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>93</v>
       </c>
@@ -6206,7 +6263,7 @@
       <c r="D10" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="599" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="146" t="s">
@@ -6235,7 +6292,7 @@
       <c r="Q10" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="560" t="s">
+      <c r="R10" s="559" t="s">
         <v>69</v>
       </c>
       <c r="S10" s="125" t="s">
@@ -6268,7 +6325,7 @@
       <c r="AJ10" s="135"/>
       <c r="AK10" s="74"/>
     </row>
-    <row r="11" spans="1:37" ht="21" customHeight="1">
+    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>122</v>
       </c>
@@ -6281,22 +6338,22 @@
       <c r="H11" s="281"/>
       <c r="I11" s="177"/>
       <c r="J11" s="142"/>
-      <c r="K11" s="510"/>
+      <c r="K11" s="509"/>
       <c r="L11" s="235"/>
       <c r="M11" s="235"/>
       <c r="N11" s="125"/>
       <c r="O11" s="140"/>
-      <c r="P11" s="563" t="s">
+      <c r="P11" s="561" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="551" t="s">
+      <c r="Q11" s="550" t="s">
         <v>71</v>
       </c>
       <c r="R11" s="235"/>
-      <c r="S11" s="551" t="s">
+      <c r="S11" s="550" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="551" t="s">
+      <c r="T11" s="550" t="s">
         <v>118</v>
       </c>
       <c r="U11" s="125"/>
@@ -6311,21 +6368,21 @@
       <c r="AD11" s="142"/>
       <c r="AE11" s="125"/>
       <c r="AF11" s="135"/>
-      <c r="AG11" s="551" t="s">
+      <c r="AG11" s="550" t="s">
         <v>71</v>
       </c>
-      <c r="AH11" s="584" t="s">
+      <c r="AH11" s="582" t="s">
         <v>71</v>
       </c>
-      <c r="AI11" s="584" t="s">
+      <c r="AI11" s="582" t="s">
         <v>118</v>
       </c>
-      <c r="AJ11" s="585" t="s">
+      <c r="AJ11" s="583" t="s">
         <v>118</v>
       </c>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="18">
+    <row r="12" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>123</v>
       </c>
@@ -6335,7 +6392,7 @@
       <c r="C12" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="154"/>
+      <c r="D12" s="143"/>
       <c r="E12" s="178" t="s">
         <v>69</v>
       </c>
@@ -6402,23 +6459,23 @@
       </c>
       <c r="AK12" s="74"/>
     </row>
-    <row r="13" spans="1:37" ht="18">
+    <row r="13" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="593" t="s">
+      <c r="C13" s="628" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="539" t="s">
+      <c r="D13" s="538" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="538" t="s">
+      <c r="E13" s="560" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="539" t="s">
+      <c r="F13" s="538" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="154"/>
@@ -6429,19 +6486,17 @@
       <c r="L13" s="125"/>
       <c r="M13" s="125"/>
       <c r="N13" s="133"/>
-      <c r="O13" s="500">
+      <c r="O13" s="499">
         <v>48</v>
       </c>
-      <c r="P13" s="561" t="s">
+      <c r="P13" s="629" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="538" t="s">
+      <c r="Q13" s="537" t="s">
         <v>115</v>
       </c>
-      <c r="R13" s="562" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="562" t="s">
+      <c r="R13" s="142"/>
+      <c r="S13" s="560" t="s">
         <v>115</v>
       </c>
       <c r="T13" s="125"/>
@@ -6463,59 +6518,59 @@
       <c r="AJ13" s="312"/>
       <c r="AK13" s="74"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="596" t="s">
+      <c r="B14" s="593" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="536" t="s">
+      <c r="C14" s="535" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="186" t="s">
+      <c r="D14" s="597" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="536" t="s">
+      <c r="E14" s="535" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="266"/>
       <c r="G14" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="597" t="s">
+      <c r="H14" s="594" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="188"/>
       <c r="J14" s="188"/>
-      <c r="K14" s="554" t="s">
+      <c r="K14" s="553" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="554" t="s">
+      <c r="L14" s="553" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="535" t="s">
+      <c r="M14" s="534" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="520" t="s">
+      <c r="N14" s="519" t="s">
         <v>69</v>
       </c>
       <c r="O14" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="568" t="s">
+      <c r="P14" s="566" t="s">
         <v>72</v>
       </c>
-      <c r="Q14" s="569" t="s">
+      <c r="Q14" s="567" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="570" t="s">
+      <c r="R14" s="568" t="s">
         <v>71</v>
       </c>
-      <c r="S14" s="571" t="s">
+      <c r="S14" s="569" t="s">
         <v>72</v>
       </c>
-      <c r="T14" s="572" t="s">
+      <c r="T14" s="570" t="s">
         <v>72</v>
       </c>
       <c r="U14" s="192"/>
@@ -6527,10 +6582,10 @@
         <v>69</v>
       </c>
       <c r="AA14" s="192"/>
-      <c r="AB14" s="485" t="s">
+      <c r="AB14" s="484" t="s">
         <v>113</v>
       </c>
-      <c r="AC14" s="494" t="s">
+      <c r="AC14" s="493" t="s">
         <v>113</v>
       </c>
       <c r="AD14" s="283"/>
@@ -6542,7 +6597,7 @@
       <c r="AJ14" s="284"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="18.75" customHeight="1">
+    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
@@ -6605,7 +6660,7 @@
       </c>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -6617,7 +6672,7 @@
       <c r="G16" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="598" t="s">
+      <c r="H16" s="595" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="142"/>
@@ -6627,7 +6682,7 @@
       <c r="M16" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="N16" s="553" t="s">
+      <c r="N16" s="552" t="s">
         <v>71</v>
       </c>
       <c r="O16" s="140" t="s">
@@ -6662,7 +6717,7 @@
       </c>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="18">
+    <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
@@ -6685,22 +6740,22 @@
       <c r="P17" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="573" t="s">
+      <c r="Q17" s="571" t="s">
         <v>110</v>
       </c>
-      <c r="R17" s="573" t="s">
+      <c r="R17" s="571" t="s">
         <v>109</v>
       </c>
-      <c r="S17" s="573" t="s">
+      <c r="S17" s="571" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="573" t="s">
+      <c r="T17" s="571" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="574" t="s">
+      <c r="U17" s="572" t="s">
         <v>118</v>
       </c>
-      <c r="V17" s="575" t="s">
+      <c r="V17" s="573" t="s">
         <v>118</v>
       </c>
       <c r="W17" s="139"/>
@@ -6710,19 +6765,19 @@
       <c r="AA17" s="125"/>
       <c r="AB17" s="125"/>
       <c r="AC17" s="140"/>
-      <c r="AD17" s="551" t="s">
+      <c r="AD17" s="550" t="s">
         <v>116</v>
       </c>
-      <c r="AE17" s="551" t="s">
+      <c r="AE17" s="550" t="s">
         <v>6</v>
       </c>
-      <c r="AF17" s="551" t="s">
+      <c r="AF17" s="550" t="s">
         <v>81</v>
       </c>
-      <c r="AG17" s="573" t="s">
+      <c r="AG17" s="571" t="s">
         <v>115</v>
       </c>
-      <c r="AH17" s="573" t="s">
+      <c r="AH17" s="571" t="s">
         <v>108</v>
       </c>
       <c r="AI17" s="125" t="s">
@@ -6733,7 +6788,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="18.75" customHeight="1">
+    <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -6792,7 +6847,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="17.25" customHeight="1">
+    <row r="19" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -6851,7 +6906,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="17.25" customHeight="1">
+    <row r="20" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -6936,7 +6991,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="17.25" customHeight="1">
+    <row r="21" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>77</v>
       </c>
@@ -6955,7 +7010,7 @@
       <c r="N21" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="526"/>
+      <c r="O21" s="525"/>
       <c r="P21" s="144"/>
       <c r="Q21" s="125"/>
       <c r="R21" s="125"/>
@@ -6985,7 +7040,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="16.5" customHeight="1">
+    <row r="22" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
@@ -6996,17 +7051,17 @@
       <c r="F22" s="154"/>
       <c r="G22" s="154"/>
       <c r="H22" s="176"/>
-      <c r="I22" s="550" t="s">
+      <c r="I22" s="549" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="551" t="s">
+      <c r="J22" s="550" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="125"/>
-      <c r="L22" s="551" t="s">
+      <c r="L22" s="550" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="551" t="s">
+      <c r="M22" s="550" t="s">
         <v>108</v>
       </c>
       <c r="N22" s="125"/>
@@ -7036,7 +7091,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="16.5" customHeight="1">
+    <row r="23" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -7047,10 +7102,10 @@
       <c r="F23" s="154"/>
       <c r="G23" s="154"/>
       <c r="H23" s="176"/>
-      <c r="I23" s="552" t="s">
+      <c r="I23" s="551" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="553" t="s">
+      <c r="J23" s="552" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="125" t="s">
@@ -7111,7 +7166,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" ht="18.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -7153,16 +7208,16 @@
       <c r="AA24" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="582" t="s">
+      <c r="AB24" s="580" t="s">
         <v>113</v>
       </c>
-      <c r="AC24" s="583" t="s">
+      <c r="AC24" s="581" t="s">
         <v>113</v>
       </c>
-      <c r="AD24" s="554" t="s">
+      <c r="AD24" s="553" t="s">
         <v>113</v>
       </c>
-      <c r="AE24" s="572" t="s">
+      <c r="AE24" s="570" t="s">
         <v>113</v>
       </c>
       <c r="AF24" s="191" t="s">
@@ -7176,7 +7231,7 @@
       <c r="AL24" s="55"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="19.5" customHeight="1">
+    <row r="25" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
@@ -7227,7 +7282,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="55"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1">
+    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>19</v>
       </c>
@@ -7280,7 +7335,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="17.25" customHeight="1">
+    <row r="27" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>97</v>
       </c>
@@ -7365,7 +7420,7 @@
       <c r="AL27" s="55"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="17.25" customHeight="1">
+    <row r="28" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>104</v>
       </c>
@@ -7398,7 +7453,7 @@
       <c r="N28" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="O28" s="491" t="s">
+      <c r="O28" s="490" t="s">
         <v>113</v>
       </c>
       <c r="P28" s="183"/>
@@ -7431,7 +7486,7 @@
       <c r="AE28" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="AF28" s="586" t="s">
+      <c r="AF28" s="584" t="s">
         <v>113</v>
       </c>
       <c r="AG28" s="157" t="s">
@@ -7450,7 +7505,7 @@
       <c r="AL28" s="55"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="18.75" thickBot="1">
+    <row r="29" spans="1:39" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>94</v>
       </c>
@@ -7517,7 +7572,7 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="18.75" customHeight="1">
+    <row r="30" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>20</v>
       </c>
@@ -7568,7 +7623,7 @@
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="16.5" customHeight="1">
+    <row r="31" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>21</v>
       </c>
@@ -7579,7 +7634,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="357"/>
       <c r="H31" s="358"/>
-      <c r="I31" s="508" t="s">
+      <c r="I31" s="507" t="s">
         <v>109</v>
       </c>
       <c r="J31" s="359" t="s">
@@ -7627,7 +7682,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>95</v>
       </c>
@@ -7678,7 +7733,7 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:38" ht="18">
+    <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
@@ -7736,7 +7791,7 @@
       </c>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="1:38" ht="18" customHeight="1">
+    <row r="34" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
@@ -7786,7 +7841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="18">
+    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>25</v>
       </c>
@@ -7812,24 +7867,24 @@
       <c r="U35" s="153"/>
       <c r="V35" s="196"/>
       <c r="W35" s="404"/>
-      <c r="X35" s="524" t="s">
+      <c r="X35" s="523" t="s">
         <v>110</v>
       </c>
-      <c r="Y35" s="524" t="s">
+      <c r="Y35" s="523" t="s">
         <v>110</v>
       </c>
       <c r="Z35" s="456"/>
       <c r="AA35" s="456"/>
       <c r="AB35" s="456"/>
-      <c r="AC35" s="525"/>
+      <c r="AC35" s="524"/>
       <c r="AD35" s="144" t="s">
         <v>110</v>
       </c>
       <c r="AE35" s="157"/>
-      <c r="AF35" s="499" t="s">
+      <c r="AF35" s="498" t="s">
         <v>6</v>
       </c>
-      <c r="AG35" s="502" t="s">
+      <c r="AG35" s="501" t="s">
         <v>6</v>
       </c>
       <c r="AH35" s="133" t="s">
@@ -7846,12 +7901,12 @@
       </c>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="1:38" ht="18">
+    <row r="36" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="175"/>
-      <c r="C36" s="476"/>
+      <c r="C36" s="154"/>
       <c r="D36" s="154" t="s">
         <v>110</v>
       </c>
@@ -7924,7 +7979,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="1:38" ht="18">
+    <row r="37" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>27</v>
       </c>
@@ -7998,7 +8053,7 @@
       <c r="AK37" s="126"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="1:38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>28</v>
       </c>
@@ -8047,7 +8102,7 @@
       <c r="V38" s="453" t="s">
         <v>108</v>
       </c>
-      <c r="W38" s="509" t="s">
+      <c r="W38" s="508" t="s">
         <v>81</v>
       </c>
       <c r="X38" s="411" t="s">
@@ -8062,7 +8117,7 @@
       <c r="AA38" s="412"/>
       <c r="AB38" s="412"/>
       <c r="AC38" s="413"/>
-      <c r="AD38" s="507"/>
+      <c r="AD38" s="506"/>
       <c r="AE38" s="392"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="414"/>
@@ -8072,7 +8127,7 @@
       <c r="AK38" s="74"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
@@ -8088,8 +8143,8 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="489"/>
-      <c r="O39" s="488"/>
+      <c r="N39" s="488"/>
+      <c r="O39" s="487"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -8122,7 +8177,7 @@
       <c r="AK39" s="74"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:38" ht="16.5" customHeight="1">
+    <row r="40" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>80</v>
       </c>
@@ -8150,7 +8205,7 @@
       <c r="U40" s="384" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="501" t="s">
+      <c r="V40" s="500" t="s">
         <v>6</v>
       </c>
       <c r="W40" s="320"/>
@@ -8170,7 +8225,7 @@
       <c r="AK40" s="74"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="1:38" ht="18" customHeight="1">
+    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>89</v>
       </c>
@@ -8228,7 +8283,7 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:38" ht="17.25" customHeight="1">
+    <row r="42" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>85</v>
       </c>
@@ -8286,16 +8341,16 @@
       <c r="AC42" s="461" t="s">
         <v>108</v>
       </c>
-      <c r="AD42" s="528" t="s">
+      <c r="AD42" s="527" t="s">
         <v>71</v>
       </c>
-      <c r="AE42" s="529" t="s">
+      <c r="AE42" s="528" t="s">
         <v>71</v>
       </c>
       <c r="AF42" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="AG42" s="497" t="s">
+      <c r="AG42" s="496" t="s">
         <v>6</v>
       </c>
       <c r="AH42" s="183"/>
@@ -8306,7 +8361,7 @@
       </c>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:38" ht="17.25" customHeight="1">
+    <row r="43" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>31</v>
       </c>
@@ -8356,7 +8411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="17.25" customHeight="1">
+    <row r="44" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>100</v>
       </c>
@@ -8386,7 +8441,7 @@
       <c r="O44" s="439" t="s">
         <v>81</v>
       </c>
-      <c r="P44" s="498" t="s">
+      <c r="P44" s="497" t="s">
         <v>6</v>
       </c>
       <c r="Q44" s="457" t="s">
@@ -8395,7 +8450,7 @@
       <c r="R44" s="457" t="s">
         <v>6</v>
       </c>
-      <c r="S44" s="498" t="s">
+      <c r="S44" s="497" t="s">
         <v>6</v>
       </c>
       <c r="T44" s="278" t="s">
@@ -8416,10 +8471,10 @@
       <c r="AC44" s="310"/>
       <c r="AD44" s="144"/>
       <c r="AE44" s="183"/>
-      <c r="AF44" s="531" t="s">
+      <c r="AF44" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="AG44" s="534" t="s">
+      <c r="AG44" s="533" t="s">
         <v>69</v>
       </c>
       <c r="AH44" s="183"/>
@@ -8430,11 +8485,11 @@
       <c r="AK44" s="59"/>
       <c r="AL44" s="59"/>
     </row>
-    <row r="45" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="516"/>
+      <c r="B45" s="515"/>
       <c r="C45" s="127"/>
       <c r="D45" s="185">
         <v>56</v>
@@ -8445,8 +8500,8 @@
       <c r="H45" s="187"/>
       <c r="I45" s="226"/>
       <c r="J45" s="157"/>
-      <c r="K45" s="515"/>
-      <c r="L45" s="514"/>
+      <c r="K45" s="514"/>
+      <c r="L45" s="513"/>
       <c r="M45" s="190"/>
       <c r="N45" s="164"/>
       <c r="O45" s="163"/>
@@ -8458,10 +8513,10 @@
       <c r="U45" s="164"/>
       <c r="V45" s="258"/>
       <c r="W45" s="307"/>
-      <c r="X45" s="522" t="s">
+      <c r="X45" s="521" t="s">
         <v>110</v>
       </c>
-      <c r="Y45" s="523" t="s">
+      <c r="Y45" s="522" t="s">
         <v>110</v>
       </c>
       <c r="Z45" s="384" t="s">
@@ -8486,7 +8541,7 @@
       <c r="AK45" s="59"/>
       <c r="AL45" s="59"/>
     </row>
-    <row r="46" spans="1:38" ht="18">
+    <row r="46" spans="1:38" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>33</v>
       </c>
@@ -8498,13 +8553,13 @@
       <c r="E46" s="305" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="541" t="s">
+      <c r="F46" s="540" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="542" t="s">
+      <c r="G46" s="541" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="543" t="s">
+      <c r="H46" s="542" t="s">
         <v>113</v>
       </c>
       <c r="I46" s="219"/>
@@ -8512,10 +8567,10 @@
       <c r="K46" s="257"/>
       <c r="L46" s="257"/>
       <c r="M46" s="135"/>
-      <c r="N46" s="538" t="s">
+      <c r="N46" s="537" t="s">
         <v>113</v>
       </c>
-      <c r="O46" s="559" t="s">
+      <c r="O46" s="558" t="s">
         <v>113</v>
       </c>
       <c r="P46" s="219"/>
@@ -8531,28 +8586,28 @@
       <c r="X46" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="Y46" s="540" t="s">
+      <c r="Y46" s="539" t="s">
         <v>113</v>
       </c>
-      <c r="Z46" s="540" t="s">
+      <c r="Z46" s="539" t="s">
         <v>113</v>
       </c>
-      <c r="AA46" s="540" t="s">
+      <c r="AA46" s="539" t="s">
         <v>113</v>
       </c>
-      <c r="AB46" s="477"/>
-      <c r="AC46" s="478"/>
-      <c r="AD46" s="493"/>
+      <c r="AB46" s="476"/>
+      <c r="AC46" s="477"/>
+      <c r="AD46" s="492"/>
       <c r="AE46" s="135"/>
       <c r="AF46" s="125"/>
       <c r="AG46" s="169"/>
       <c r="AH46" s="257"/>
       <c r="AI46" s="257"/>
-      <c r="AJ46" s="517"/>
+      <c r="AJ46" s="516"/>
       <c r="AK46" s="59"/>
       <c r="AL46" s="1"/>
     </row>
-    <row r="47" spans="1:38" ht="18.75" customHeight="1">
+    <row r="47" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>34</v>
       </c>
@@ -8577,13 +8632,13 @@
       <c r="H47" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="I47" s="555" t="s">
+      <c r="I47" s="554" t="s">
         <v>69</v>
       </c>
-      <c r="J47" s="555" t="s">
+      <c r="J47" s="554" t="s">
         <v>69</v>
       </c>
-      <c r="K47" s="527" t="s">
+      <c r="K47" s="526" t="s">
         <v>69</v>
       </c>
       <c r="L47" s="122"/>
@@ -8593,7 +8648,7 @@
       <c r="N47" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="O47" s="512"/>
+      <c r="O47" s="511"/>
       <c r="P47" s="275"/>
       <c r="Q47" s="211"/>
       <c r="R47" s="211"/>
@@ -8636,25 +8691,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" customHeight="1">
+    <row r="48" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="594"/>
-      <c r="C48" s="595"/>
-      <c r="D48" s="537" t="s">
+      <c r="B48" s="591"/>
+      <c r="C48" s="592"/>
+      <c r="D48" s="536" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="537" t="s">
+      <c r="F48" s="536" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="537" t="s">
+      <c r="G48" s="536" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="599" t="s">
+      <c r="H48" s="596" t="s">
         <v>72</v>
       </c>
       <c r="I48" s="275"/>
@@ -8669,13 +8724,13 @@
       <c r="N48" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="O48" s="521" t="s">
+      <c r="O48" s="520" t="s">
         <v>69</v>
       </c>
-      <c r="P48" s="496"/>
-      <c r="Q48" s="496"/>
-      <c r="R48" s="492"/>
-      <c r="S48" s="511"/>
+      <c r="P48" s="495"/>
+      <c r="Q48" s="495"/>
+      <c r="R48" s="491"/>
+      <c r="S48" s="510"/>
       <c r="T48" s="125"/>
       <c r="U48" s="135"/>
       <c r="V48" s="137"/>
@@ -8686,16 +8741,16 @@
         <v>71</v>
       </c>
       <c r="Y48" s="135"/>
-      <c r="Z48" s="553" t="s">
+      <c r="Z48" s="552" t="s">
         <v>69</v>
       </c>
-      <c r="AA48" s="553" t="s">
+      <c r="AA48" s="552" t="s">
         <v>72</v>
       </c>
-      <c r="AB48" s="553" t="s">
+      <c r="AB48" s="552" t="s">
         <v>72</v>
       </c>
-      <c r="AC48" s="578" t="s">
+      <c r="AC48" s="576" t="s">
         <v>72</v>
       </c>
       <c r="AD48" s="200" t="s">
@@ -8718,7 +8773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>38</v>
       </c>
@@ -8757,9 +8812,9 @@
       <c r="V49" s="163"/>
       <c r="W49" s="309"/>
       <c r="X49" s="272"/>
-      <c r="Y49" s="495"/>
+      <c r="Y49" s="494"/>
       <c r="Z49" s="273"/>
-      <c r="AA49" s="513"/>
+      <c r="AA49" s="512"/>
       <c r="AB49" s="142"/>
       <c r="AC49" s="163" t="s">
         <v>109</v>
@@ -8776,7 +8831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="16.5" customHeight="1">
+    <row r="50" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>39</v>
       </c>
@@ -8801,13 +8856,13 @@
       <c r="H50" s="325">
         <v>38</v>
       </c>
-      <c r="I50" s="556" t="s">
+      <c r="I50" s="555" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="557" t="s">
+      <c r="J50" s="556" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="558" t="s">
+      <c r="K50" s="557" t="s">
         <v>112</v>
       </c>
       <c r="L50" s="265"/>
@@ -8823,24 +8878,24 @@
       <c r="V50" s="170"/>
       <c r="W50" s="329"/>
       <c r="X50" s="210"/>
-      <c r="Y50" s="580" t="s">
+      <c r="Y50" s="598" t="s">
         <v>111</v>
       </c>
       <c r="Z50" s="210"/>
-      <c r="AA50" s="580" t="s">
+      <c r="AA50" s="578" t="s">
         <v>112</v>
       </c>
-      <c r="AB50" s="557" t="s">
+      <c r="AB50" s="556" t="s">
         <v>112</v>
       </c>
-      <c r="AC50" s="581" t="s">
+      <c r="AC50" s="579" t="s">
         <v>112</v>
       </c>
       <c r="AD50" s="330"/>
-      <c r="AE50" s="590" t="s">
+      <c r="AE50" s="588" t="s">
         <v>111</v>
       </c>
-      <c r="AF50" s="591" t="s">
+      <c r="AF50" s="589" t="s">
         <v>111</v>
       </c>
       <c r="AG50" s="328"/>
@@ -8850,7 +8905,7 @@
       <c r="AK50" s="74"/>
       <c r="AL50" s="1"/>
     </row>
-    <row r="51" spans="1:38" ht="17.25" customHeight="1">
+    <row r="51" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>40</v>
       </c>
@@ -8914,7 +8969,7 @@
       <c r="AC51" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="AD51" s="503" t="s">
+      <c r="AD51" s="502" t="s">
         <v>86</v>
       </c>
       <c r="AE51" s="212" t="s">
@@ -8932,38 +8987,38 @@
       </c>
       <c r="AL51" s="1"/>
     </row>
-    <row r="52" spans="1:38" ht="15.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="544" t="s">
+      <c r="B52" s="543" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="545" t="s">
+      <c r="C52" s="544" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="546" t="s">
+      <c r="D52" s="545" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="547" t="s">
+      <c r="E52" s="546" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="548" t="s">
+      <c r="F52" s="547" t="s">
         <v>111</v>
       </c>
-      <c r="G52" s="545" t="s">
+      <c r="G52" s="544" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="549" t="s">
+      <c r="H52" s="548" t="s">
         <v>111</v>
       </c>
-      <c r="I52" s="544" t="s">
+      <c r="I52" s="543" t="s">
         <v>112</v>
       </c>
-      <c r="J52" s="545" t="s">
+      <c r="J52" s="544" t="s">
         <v>112</v>
       </c>
-      <c r="K52" s="546" t="s">
+      <c r="K52" s="545" t="s">
         <v>112</v>
       </c>
       <c r="L52" s="213"/>
@@ -8978,25 +9033,25 @@
       <c r="U52" s="186"/>
       <c r="V52" s="267"/>
       <c r="W52" s="226"/>
-      <c r="X52" s="504"/>
-      <c r="Y52" s="579" t="s">
+      <c r="X52" s="503"/>
+      <c r="Y52" s="577" t="s">
         <v>111</v>
       </c>
       <c r="Z52" s="263"/>
-      <c r="AA52" s="545" t="s">
+      <c r="AA52" s="544" t="s">
         <v>112</v>
       </c>
-      <c r="AB52" s="545" t="s">
+      <c r="AB52" s="544" t="s">
         <v>112</v>
       </c>
-      <c r="AC52" s="549" t="s">
+      <c r="AC52" s="548" t="s">
         <v>112</v>
       </c>
       <c r="AD52" s="331"/>
-      <c r="AE52" s="579" t="s">
+      <c r="AE52" s="577" t="s">
         <v>111</v>
       </c>
-      <c r="AF52" s="589" t="s">
+      <c r="AF52" s="587" t="s">
         <v>111</v>
       </c>
       <c r="AG52" s="266"/>
@@ -9010,7 +9065,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>43</v>
       </c>
@@ -9070,7 +9125,7 @@
       </c>
       <c r="AL53" s="1"/>
     </row>
-    <row r="54" spans="1:38" ht="17.25" customHeight="1">
+    <row r="54" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>101</v>
       </c>
@@ -9131,7 +9186,7 @@
       <c r="AJ54" s="152"/>
       <c r="AL54" s="1"/>
     </row>
-    <row r="55" spans="1:38" ht="18.75" thickBot="1">
+    <row r="55" spans="1:38" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>44</v>
       </c>
@@ -9220,7 +9275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="17.25" customHeight="1">
+    <row r="56" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="271" t="s">
         <v>96</v>
       </c>
@@ -9326,7 +9381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="16.5" customHeight="1">
+    <row r="57" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>46</v>
       </c>
@@ -9372,7 +9427,7 @@
       <c r="AA57" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AB57" s="486" t="s">
+      <c r="AB57" s="485" t="s">
         <v>69</v>
       </c>
       <c r="AC57" s="339" t="s">
@@ -9389,16 +9444,16 @@
       <c r="AH57" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="AI57" s="587" t="s">
+      <c r="AI57" s="585" t="s">
         <v>71</v>
       </c>
-      <c r="AJ57" s="588" t="s">
+      <c r="AJ57" s="586" t="s">
         <v>71</v>
       </c>
       <c r="AK57" s="67"/>
       <c r="AL57" s="55"/>
     </row>
-    <row r="58" spans="1:38" ht="16.5" customHeight="1">
+    <row r="58" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>47</v>
       </c>
@@ -9457,7 +9512,7 @@
       <c r="V58" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="W58" s="505"/>
+      <c r="W58" s="504"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="37" t="s">
         <v>86</v>
@@ -9490,7 +9545,7 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="1:38" ht="15.75" customHeight="1">
+    <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>87</v>
       </c>
@@ -9501,7 +9556,7 @@
       <c r="F59" s="48"/>
       <c r="G59" s="45"/>
       <c r="H59" s="48"/>
-      <c r="I59" s="505"/>
+      <c r="I59" s="504"/>
       <c r="J59" s="69"/>
       <c r="K59" s="37"/>
       <c r="L59" s="56"/>
@@ -9532,7 +9587,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="17.25" customHeight="1">
+    <row r="60" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="141" t="s">
         <v>76</v>
       </c>
@@ -9550,13 +9605,13 @@
       <c r="M60" s="107"/>
       <c r="N60" s="27"/>
       <c r="O60" s="242"/>
-      <c r="P60" s="565" t="s">
+      <c r="P60" s="563" t="s">
         <v>69</v>
       </c>
-      <c r="Q60" s="566" t="s">
+      <c r="Q60" s="564" t="s">
         <v>69</v>
       </c>
-      <c r="R60" s="567" t="s">
+      <c r="R60" s="565" t="s">
         <v>72</v>
       </c>
       <c r="S60" s="276"/>
@@ -9580,7 +9635,7 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="1:38" ht="19.5" customHeight="1">
+    <row r="61" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>48</v>
       </c>
@@ -9602,7 +9657,7 @@
       <c r="K61" s="259" t="s">
         <v>113</v>
       </c>
-      <c r="L61" s="530" t="s">
+      <c r="L61" s="529" t="s">
         <v>113</v>
       </c>
       <c r="M61" s="129" t="s">
@@ -9611,7 +9666,7 @@
       <c r="N61" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="O61" s="490" t="s">
+      <c r="O61" s="489" t="s">
         <v>72</v>
       </c>
       <c r="P61" s="128"/>
@@ -9628,7 +9683,7 @@
       <c r="U61" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="V61" s="490" t="s">
+      <c r="V61" s="489" t="s">
         <v>72</v>
       </c>
       <c r="W61" s="195" t="s">
@@ -9662,12 +9717,12 @@
       <c r="AI61" s="345" t="s">
         <v>71</v>
       </c>
-      <c r="AJ61" s="519" t="s">
+      <c r="AJ61" s="518" t="s">
         <v>71</v>
       </c>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="19.5" customHeight="1">
+    <row r="62" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>98</v>
       </c>
@@ -9738,7 +9793,7 @@
       <c r="AJ62" s="269"/>
       <c r="AL62" s="1"/>
     </row>
-    <row r="63" spans="1:38" ht="18.75" customHeight="1">
+    <row r="63" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>74</v>
       </c>
@@ -9786,7 +9841,7 @@
       <c r="AK63" s="104"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="1:38" ht="18.75" customHeight="1">
+    <row r="64" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>90</v>
       </c>
@@ -9844,7 +9899,7 @@
         <v>81</v>
       </c>
       <c r="AA64" s="432"/>
-      <c r="AB64" s="533"/>
+      <c r="AB64" s="532"/>
       <c r="AC64" s="434"/>
       <c r="AD64" s="421" t="s">
         <v>81</v>
@@ -9860,7 +9915,7 @@
       <c r="AK64" s="63"/>
       <c r="AL64" s="1"/>
     </row>
-    <row r="65" spans="1:38" ht="18" customHeight="1">
+    <row r="65" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>49</v>
       </c>
@@ -9880,10 +9935,10 @@
       <c r="M65" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="N65" s="532" t="s">
+      <c r="N65" s="531" t="s">
         <v>111</v>
       </c>
-      <c r="O65" s="483" t="s">
+      <c r="O65" s="482" t="s">
         <v>111</v>
       </c>
       <c r="P65" s="117"/>
@@ -9910,10 +9965,10 @@
       <c r="AA65" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="AB65" s="532" t="s">
+      <c r="AB65" s="531" t="s">
         <v>111</v>
       </c>
-      <c r="AC65" s="483" t="s">
+      <c r="AC65" s="482" t="s">
         <v>111</v>
       </c>
       <c r="AD65" s="250"/>
@@ -9925,16 +9980,16 @@
       <c r="AH65" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="AI65" s="532" t="s">
+      <c r="AI65" s="531" t="s">
         <v>111</v>
       </c>
-      <c r="AJ65" s="483" t="s">
+      <c r="AJ65" s="482" t="s">
         <v>111</v>
       </c>
       <c r="AK65" s="77"/>
       <c r="AL65" s="55"/>
     </row>
-    <row r="66" spans="1:38" ht="18.75" customHeight="1">
+    <row r="66" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>50</v>
       </c>
@@ -9957,11 +10012,11 @@
       <c r="N66" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="O66" s="484" t="s">
+      <c r="O66" s="483" t="s">
         <v>111</v>
       </c>
-      <c r="P66" s="481"/>
-      <c r="Q66" s="482" t="s">
+      <c r="P66" s="480"/>
+      <c r="Q66" s="481" t="s">
         <v>111</v>
       </c>
       <c r="R66" s="61" t="s">
@@ -9975,8 +10030,8 @@
       </c>
       <c r="U66" s="42"/>
       <c r="V66" s="116"/>
-      <c r="W66" s="481"/>
-      <c r="X66" s="482"/>
+      <c r="W66" s="480"/>
+      <c r="X66" s="481"/>
       <c r="Y66" s="61"/>
       <c r="Z66" s="83" t="s">
         <v>111</v>
@@ -9987,7 +10042,7 @@
       <c r="AB66" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="AC66" s="484" t="s">
+      <c r="AC66" s="483" t="s">
         <v>111</v>
       </c>
       <c r="AD66" s="30"/>
@@ -10002,13 +10057,13 @@
       <c r="AI66" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="AJ66" s="484" t="s">
+      <c r="AJ66" s="483" t="s">
         <v>111</v>
       </c>
       <c r="AK66" s="98"/>
       <c r="AL66" s="59"/>
     </row>
-    <row r="67" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
+    <row r="67" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>91</v>
       </c>
@@ -10054,8 +10109,8 @@
       <c r="O67" s="254" t="s">
         <v>111</v>
       </c>
-      <c r="P67" s="479"/>
-      <c r="Q67" s="480" t="s">
+      <c r="P67" s="478"/>
+      <c r="Q67" s="479" t="s">
         <v>111</v>
       </c>
       <c r="R67" s="303" t="s">
@@ -10064,7 +10119,7 @@
       <c r="S67" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="T67" s="530" t="s">
+      <c r="T67" s="529" t="s">
         <v>111</v>
       </c>
       <c r="U67" s="25" t="s">
@@ -10087,7 +10142,7 @@
       <c r="AB67" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="AC67" s="506" t="s">
+      <c r="AC67" s="505" t="s">
         <v>111</v>
       </c>
       <c r="AD67" s="298"/>
@@ -10112,7 +10167,7 @@
       <c r="AK67" s="253"/>
       <c r="AL67" s="1"/>
     </row>
-    <row r="68" spans="1:38" ht="10.5" customHeight="1" thickBot="1">
+    <row r="68" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -10152,7 +10207,7 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
     </row>
-    <row r="69" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
+    <row r="69" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>51</v>
       </c>
@@ -10204,7 +10259,7 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -10244,245 +10299,245 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="83" spans="16:18">
+    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P83" s="110"/>
     </row>
-    <row r="84" spans="16:18">
+    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P84" s="110"/>
     </row>
-    <row r="85" spans="16:18">
+    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P85" s="110"/>
     </row>
-    <row r="89" spans="16:18">
+    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P89" s="110"/>
     </row>
-    <row r="90" spans="16:18">
+    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P90" s="110"/>
     </row>
-    <row r="91" spans="16:18">
+    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P91" s="110"/>
       <c r="Q91" s="110"/>
     </row>
-    <row r="92" spans="16:18">
+    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P92" s="110"/>
     </row>
-    <row r="93" spans="16:18">
+    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
       <c r="Q93" s="110"/>
     </row>
-    <row r="95" spans="16:18">
+    <row r="95" spans="16:18" x14ac:dyDescent="0.25">
       <c r="R95" s="110"/>
     </row>
-    <row r="96" spans="16:18">
+    <row r="96" spans="16:18" x14ac:dyDescent="0.25">
       <c r="Q96" s="110"/>
     </row>
-    <row r="97" spans="16:19">
+    <row r="97" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P97" s="110"/>
       <c r="Q97" s="110"/>
     </row>
-    <row r="98" spans="16:19">
+    <row r="98" spans="16:19" x14ac:dyDescent="0.25">
       <c r="Q98" s="110"/>
     </row>
-    <row r="99" spans="16:19">
+    <row r="99" spans="16:19" x14ac:dyDescent="0.25">
       <c r="Q99" s="110"/>
     </row>
-    <row r="105" spans="16:19">
+    <row r="105" spans="16:19" x14ac:dyDescent="0.25">
       <c r="S105" s="110"/>
     </row>
-    <row r="106" spans="16:19">
+    <row r="106" spans="16:19" x14ac:dyDescent="0.25">
       <c r="R106" s="110"/>
     </row>
-    <row r="107" spans="16:19">
+    <row r="107" spans="16:19" x14ac:dyDescent="0.25">
       <c r="R107" s="110"/>
     </row>
-    <row r="108" spans="16:19">
+    <row r="108" spans="16:19" x14ac:dyDescent="0.25">
       <c r="R108" s="110"/>
     </row>
-    <row r="109" spans="16:19">
+    <row r="109" spans="16:19" x14ac:dyDescent="0.25">
       <c r="R109" s="110"/>
     </row>
-    <row r="110" spans="16:19">
+    <row r="110" spans="16:19" x14ac:dyDescent="0.25">
       <c r="R110" s="110"/>
     </row>
-    <row r="111" spans="16:19">
+    <row r="111" spans="16:19" x14ac:dyDescent="0.25">
       <c r="Q111" s="110"/>
       <c r="R111" s="110"/>
     </row>
-    <row r="112" spans="16:19">
+    <row r="112" spans="16:19" x14ac:dyDescent="0.25">
       <c r="Q112" s="110"/>
       <c r="R112" s="110"/>
     </row>
-    <row r="113" spans="15:19">
+    <row r="113" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R113" s="110"/>
     </row>
-    <row r="114" spans="15:19">
+    <row r="114" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R114" s="110"/>
     </row>
-    <row r="115" spans="15:19">
+    <row r="115" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R115" s="110"/>
     </row>
-    <row r="116" spans="15:19">
+    <row r="116" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R116" s="110"/>
     </row>
-    <row r="117" spans="15:19">
+    <row r="117" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S117" s="110"/>
     </row>
-    <row r="118" spans="15:19">
+    <row r="118" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R118" s="110"/>
       <c r="S118" s="110"/>
     </row>
-    <row r="119" spans="15:19">
+    <row r="119" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R119" s="110"/>
     </row>
-    <row r="121" spans="15:19">
+    <row r="121" spans="15:19" x14ac:dyDescent="0.25">
       <c r="R121" s="110"/>
     </row>
-    <row r="123" spans="15:19">
+    <row r="123" spans="15:19" x14ac:dyDescent="0.25">
       <c r="P123" s="110"/>
       <c r="Q123" s="110"/>
     </row>
-    <row r="124" spans="15:19">
+    <row r="124" spans="15:19" x14ac:dyDescent="0.25">
       <c r="Q124" s="110"/>
     </row>
-    <row r="125" spans="15:19">
+    <row r="125" spans="15:19" x14ac:dyDescent="0.25">
       <c r="Q125" s="110"/>
     </row>
-    <row r="126" spans="15:19">
+    <row r="126" spans="15:19" x14ac:dyDescent="0.25">
       <c r="Q126" s="110"/>
       <c r="R126" s="110"/>
     </row>
-    <row r="127" spans="15:19">
+    <row r="127" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O127" s="110"/>
       <c r="Q127" s="110"/>
     </row>
-    <row r="128" spans="15:19">
+    <row r="128" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O128" s="110"/>
       <c r="Q128" s="110"/>
       <c r="R128" s="110"/>
     </row>
-    <row r="129" spans="15:22">
+    <row r="129" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P129" s="110"/>
       <c r="Q129" s="110"/>
       <c r="R129" s="110"/>
     </row>
-    <row r="130" spans="15:22">
+    <row r="130" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O130" s="110"/>
       <c r="Q130" s="110"/>
       <c r="R130" s="110"/>
     </row>
-    <row r="131" spans="15:22">
+    <row r="131" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O131" s="110"/>
       <c r="Q131" s="110"/>
       <c r="R131" s="110"/>
     </row>
-    <row r="132" spans="15:22">
+    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O132" s="110"/>
       <c r="Q132" s="110"/>
       <c r="R132" s="110"/>
     </row>
-    <row r="133" spans="15:22">
+    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P133" s="110"/>
       <c r="Q133" s="110"/>
       <c r="R133" s="110"/>
       <c r="V133" s="110"/>
     </row>
-    <row r="134" spans="15:22">
+    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P134" s="110"/>
       <c r="Q134" s="110"/>
     </row>
-    <row r="135" spans="15:22">
+    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P135" s="110"/>
       <c r="Q135" s="110"/>
     </row>
-    <row r="136" spans="15:22">
+    <row r="136" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P136" s="110"/>
       <c r="Q136" s="110"/>
       <c r="S136" s="110"/>
     </row>
-    <row r="137" spans="15:22">
+    <row r="137" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P137" s="110"/>
       <c r="Q137" s="110"/>
       <c r="R137" s="110"/>
       <c r="S137" s="110"/>
     </row>
-    <row r="138" spans="15:22">
+    <row r="138" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O138" s="110"/>
       <c r="Q138" s="110"/>
     </row>
-    <row r="139" spans="15:22">
+    <row r="139" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P139" s="110"/>
       <c r="Q139" s="110"/>
     </row>
-    <row r="140" spans="15:22">
+    <row r="140" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P140" s="110"/>
       <c r="Q140" s="110"/>
       <c r="R140" s="110"/>
       <c r="T140" s="110"/>
     </row>
-    <row r="141" spans="15:22">
+    <row r="141" spans="15:22" x14ac:dyDescent="0.25">
       <c r="Q141" s="110"/>
       <c r="R141" s="110"/>
     </row>
-    <row r="142" spans="15:22">
+    <row r="142" spans="15:22" x14ac:dyDescent="0.25">
       <c r="Q142" s="110"/>
     </row>
-    <row r="143" spans="15:22">
+    <row r="143" spans="15:22" x14ac:dyDescent="0.25">
       <c r="Q143" s="110"/>
       <c r="T143" s="110"/>
     </row>
-    <row r="144" spans="15:22">
+    <row r="144" spans="15:22" x14ac:dyDescent="0.25">
       <c r="P144" s="110"/>
       <c r="Q144" s="110"/>
       <c r="R144" s="110"/>
     </row>
-    <row r="145" spans="18:24">
+    <row r="145" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R145" s="110"/>
     </row>
-    <row r="146" spans="18:24">
+    <row r="146" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R146" s="110"/>
     </row>
-    <row r="147" spans="18:24">
+    <row r="147" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R147" s="110"/>
       <c r="U147" s="110"/>
     </row>
-    <row r="148" spans="18:24">
+    <row r="148" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R148" s="110"/>
       <c r="V148" s="110"/>
       <c r="W148" s="110"/>
       <c r="X148" s="110"/>
     </row>
-    <row r="149" spans="18:24">
+    <row r="149" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R149" s="110"/>
       <c r="V149" s="110"/>
       <c r="W149" s="110"/>
       <c r="X149" s="110"/>
     </row>
-    <row r="150" spans="18:24">
+    <row r="150" spans="18:24" x14ac:dyDescent="0.25">
       <c r="V150" s="110"/>
     </row>
-    <row r="151" spans="18:24">
+    <row r="151" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R151" s="110"/>
       <c r="V151" s="110"/>
     </row>
-    <row r="152" spans="18:24">
+    <row r="152" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R152" s="110"/>
       <c r="V152" s="110"/>
     </row>
-    <row r="153" spans="18:24">
+    <row r="153" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R153" s="110"/>
     </row>
-    <row r="154" spans="18:24">
+    <row r="154" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R154" s="110"/>
     </row>
-    <row r="155" spans="18:24">
+    <row r="155" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R155" s="110"/>
     </row>
-    <row r="156" spans="18:24">
+    <row r="156" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R156" s="110"/>
     </row>
-    <row r="157" spans="18:24">
+    <row r="157" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R157" s="110"/>
     </row>
-    <row r="158" spans="18:24">
+    <row r="158" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R158" s="110"/>
     </row>
   </sheetData>
@@ -10515,33 +10570,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="626" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="626"/>
       <c r="D1" s="626"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
       <c r="D2" s="87"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="132"/>
       <c r="C3" s="86" t="s">
         <v>53</v>
@@ -10550,12 +10605,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="85"/>
       <c r="C4" s="86"/>
       <c r="D4" s="87"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="124"/>
       <c r="C5" s="86" t="s">
         <v>53</v>
@@ -10564,12 +10619,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="87"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="123"/>
       <c r="C7" s="86" t="s">
         <v>53</v>
@@ -10578,12 +10633,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="85"/>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="88"/>
       <c r="C9" s="86" t="s">
         <v>53</v>
@@ -10592,13 +10647,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="111"/>
       <c r="C10" s="86"/>
       <c r="D10" s="87"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B11" s="592"/>
+    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="590"/>
       <c r="C11" s="86" t="s">
         <v>53</v>
       </c>
@@ -10606,12 +10661,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="111"/>
       <c r="C12" s="109"/>
       <c r="D12" s="87"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="134"/>
       <c r="C13" s="86" t="s">
         <v>53</v>
@@ -10620,13 +10675,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="112"/>
       <c r="C14" s="86"/>
       <c r="D14" s="108"/>
       <c r="F14" s="110"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="89"/>
       <c r="C15" s="86" t="s">
         <v>53</v>
@@ -10635,12 +10690,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="85"/>
       <c r="C16" s="86"/>
       <c r="D16" s="87"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="90"/>
       <c r="C17" s="86" t="s">
         <v>53</v>
@@ -10649,12 +10704,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="85"/>
       <c r="C18" s="86"/>
       <c r="D18" s="87"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="91"/>
       <c r="C19" s="86" t="s">
         <v>53</v>
@@ -10663,12 +10718,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="85"/>
       <c r="C20" s="86"/>
       <c r="D20" s="87"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="136"/>
       <c r="C21" s="86" t="s">
         <v>53</v>
@@ -10677,12 +10732,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="85"/>
       <c r="C22" s="86"/>
       <c r="D22" s="87"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="92"/>
       <c r="C23" s="86" t="s">
         <v>53</v>
@@ -10691,12 +10746,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="85"/>
       <c r="C24" s="86"/>
       <c r="D24" s="87"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="93"/>
       <c r="C25" s="86" t="s">
         <v>53</v>
@@ -10705,12 +10760,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="87"/>
     </row>
-    <row r="27" spans="2:4" ht="21" thickBot="1">
+    <row r="27" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="94"/>
       <c r="C27" s="86" t="s">
         <v>53</v>
@@ -10719,74 +10774,74 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="130"/>
       <c r="C29" s="85"/>
       <c r="D29" s="87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
       <c r="D30" s="87"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="95"/>
       <c r="C31" s="85"/>
       <c r="D31" s="87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="96"/>
       <c r="C33" s="85"/>
       <c r="D33" s="87">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="97"/>
       <c r="C35" s="85"/>
       <c r="D35" s="87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
       <c r="D36" s="85"/>
     </row>
-    <row r="37" spans="2:4" ht="18">
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="627" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="627"/>
       <c r="D37" s="627"/>
     </row>
-    <row r="38" spans="2:4" ht="18">
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="627" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="627"/>
       <c r="D38" s="627"/>
     </row>
-    <row r="39" spans="2:4" ht="18">
+    <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="627" t="s">
         <v>66</v>
       </c>
